--- a/dummies_v2.xlsx
+++ b/dummies_v2.xlsx
@@ -632,10 +632,8 @@
       <c r="B2" t="n">
         <v>84</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+      <c r="C2" t="n">
+        <v>38</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -836,10 +834,8 @@
       <c r="B5" t="n">
         <v>80</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
+      <c r="C5" t="n">
+        <v>14</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -972,10 +968,8 @@
       <c r="B7" t="n">
         <v>86</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="C7" t="n">
+        <v>32</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1112,10 +1106,8 @@
       <c r="B9" t="n">
         <v>65</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C9" t="n">
+        <v>35</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1252,10 +1244,8 @@
       <c r="B11" t="n">
         <v>75</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
+      <c r="C11" t="n">
+        <v>44</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1324,10 +1314,8 @@
       <c r="B12" t="n">
         <v>85</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="C12" t="n">
+        <v>30</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1392,10 +1380,8 @@
       <c r="B13" t="n">
         <v>80</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
+      <c r="C13" t="n">
+        <v>39</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1578,10 +1564,8 @@
       <c r="B16" t="n">
         <v>71</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="C16" t="n">
+        <v>32</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1718,10 +1702,8 @@
       <c r="B18" t="n">
         <v>65</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C18" t="n">
+        <v>33</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1782,10 +1764,8 @@
       <c r="B19" t="n">
         <v>75</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C19" t="n">
+        <v>35</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1854,10 +1834,8 @@
       <c r="B20" t="n">
         <v>78</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
+      <c r="C20" t="n">
+        <v>44</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1926,10 +1904,8 @@
       <c r="B21" t="n">
         <v>77</v>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C21" t="n">
+        <v>37</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2066,10 +2042,8 @@
       <c r="B23" t="n">
         <v>71</v>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
+      <c r="C23" t="n">
+        <v>31</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2260,10 +2234,8 @@
       <c r="B26" t="n">
         <v>64</v>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
+      <c r="C26" t="n">
+        <v>39</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2394,10 +2366,8 @@
       <c r="B28" t="n">
         <v>60</v>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="C28" t="n">
+        <v>40</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2468,10 +2438,8 @@
       <c r="B29" t="n">
         <v>67</v>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+      <c r="C29" t="n">
+        <v>38</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2604,10 +2572,8 @@
       <c r="B31" t="n">
         <v>84</v>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
+      <c r="C31" t="n">
+        <v>31</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2676,10 +2642,8 @@
       <c r="B32" t="n">
         <v>71</v>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="C32" t="n">
+        <v>32</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2740,10 +2704,8 @@
       <c r="B33" t="n">
         <v>63</v>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C33" t="n">
+        <v>34</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2806,10 +2768,8 @@
       <c r="B34" t="n">
         <v>68</v>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C34" t="n">
+        <v>33</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2948,10 +2908,8 @@
       <c r="B36" t="n">
         <v>78</v>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="C36" t="n">
+        <v>40</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3156,10 +3114,8 @@
       <c r="B39" t="n">
         <v>63</v>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
+      <c r="C39" t="n">
+        <v>31</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3228,10 +3184,8 @@
       <c r="B40" t="n">
         <v>87</v>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="C40" t="n">
+        <v>40</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3368,10 +3322,8 @@
       <c r="B42" t="n">
         <v>72</v>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C42" t="n">
+        <v>37</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3440,10 +3392,8 @@
       <c r="B43" t="n">
         <v>70</v>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="C43" t="n">
+        <v>40</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3726,10 +3676,8 @@
       <c r="B47" t="n">
         <v>68</v>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C47" t="n">
+        <v>36</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3792,10 +3740,8 @@
       <c r="B48" t="n">
         <v>64</v>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C48" t="n">
+        <v>33</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3928,10 +3874,8 @@
       <c r="B50" t="n">
         <v>73</v>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C50" t="n">
+        <v>34</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4062,10 +4006,8 @@
       <c r="B52" t="n">
         <v>80</v>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
+      <c r="C52" t="n">
+        <v>42</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4142,10 +4084,8 @@
       <c r="B53" t="n">
         <v>79</v>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
+      <c r="C53" t="n">
+        <v>45</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4218,10 +4158,8 @@
       <c r="B54" t="n">
         <v>81</v>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C54" t="n">
+        <v>37</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4296,10 +4234,8 @@
       <c r="B55" t="n">
         <v>80</v>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>33.5</t>
-        </is>
+      <c r="C55" t="n">
+        <v>33.5</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4442,10 +4378,8 @@
       <c r="B57" t="n">
         <v>88</v>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
+      <c r="C57" t="n">
+        <v>41</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4576,10 +4510,8 @@
       <c r="B59" t="n">
         <v>67</v>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C59" t="n">
+        <v>37</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4712,10 +4644,8 @@
       <c r="B61" t="n">
         <v>75</v>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>37.5</t>
-        </is>
+      <c r="C61" t="n">
+        <v>37.5</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4786,10 +4716,8 @@
       <c r="B62" t="n">
         <v>75</v>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>37.5</t>
-        </is>
+      <c r="C62" t="n">
+        <v>37.5</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4860,10 +4788,8 @@
       <c r="B63" t="n">
         <v>81</v>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
+      <c r="C63" t="n">
+        <v>39</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5080,10 +5006,8 @@
       <c r="B66" t="n">
         <v>84</v>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
+      <c r="C66" t="n">
+        <v>42</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5148,10 +5072,8 @@
       <c r="B67" t="n">
         <v>73</v>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="C67" t="n">
+        <v>32</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5416,10 +5338,8 @@
       <c r="B71" t="n">
         <v>60</v>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>34.5</t>
-        </is>
+      <c r="C71" t="n">
+        <v>34.5</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5484,10 +5404,8 @@
       <c r="B72" t="n">
         <v>69</v>
       </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="C72" t="n">
+        <v>40</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5698,10 +5616,8 @@
       <c r="B75" t="n">
         <v>70</v>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C75" t="n">
+        <v>36</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6202,10 +6118,8 @@
       <c r="B82" t="n">
         <v>65</v>
       </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="C82" t="n">
+        <v>30</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6348,10 +6262,8 @@
       <c r="B84" t="n">
         <v>70</v>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="C84" t="n">
+        <v>15</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6414,10 +6326,8 @@
       <c r="B85" t="n">
         <v>85</v>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C85" t="n">
+        <v>35</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6490,10 +6400,8 @@
       <c r="B86" t="n">
         <v>72</v>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
+      <c r="C86" t="n">
+        <v>18</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6568,10 +6476,8 @@
       <c r="B87" t="n">
         <v>65</v>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+      <c r="C87" t="n">
+        <v>38</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6768,10 +6674,8 @@
       <c r="B90" t="n">
         <v>62</v>
       </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
+      <c r="C90" t="n">
+        <v>28</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7184,10 +7088,8 @@
       <c r="B96" t="n">
         <v>60</v>
       </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C96" t="n">
+        <v>34</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7252,10 +7154,8 @@
       <c r="B97" t="n">
         <v>70</v>
       </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C97" t="n">
+        <v>37</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7330,10 +7230,8 @@
       <c r="B98" t="n">
         <v>66</v>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="C98" t="n">
+        <v>32</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7534,10 +7432,8 @@
       <c r="B101" t="n">
         <v>86</v>
       </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
+      <c r="C101" t="n">
+        <v>43</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7750,10 +7646,8 @@
       <c r="B104" t="n">
         <v>68</v>
       </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="C104" t="n">
+        <v>30</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7898,10 +7792,8 @@
       <c r="B106" t="n">
         <v>85</v>
       </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="C106" t="n">
+        <v>40</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8042,10 +7934,8 @@
       <c r="B108" t="n">
         <v>75</v>
       </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C108" t="n">
+        <v>35</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8394,10 +8284,8 @@
       <c r="B113" t="n">
         <v>72</v>
       </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>30.3</t>
-        </is>
+      <c r="C113" t="n">
+        <v>30.3</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8530,10 +8418,8 @@
       <c r="B115" t="n">
         <v>75</v>
       </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="C115" t="n">
+        <v>32</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8674,10 +8560,8 @@
       <c r="B117" t="n">
         <v>65</v>
       </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
+      <c r="C117" t="n">
+        <v>42</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8750,10 +8634,8 @@
       <c r="B118" t="n">
         <v>62</v>
       </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
+      <c r="C118" t="n">
+        <v>28</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8962,10 +8844,8 @@
       <c r="B121" t="n">
         <v>68</v>
       </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C121" t="n">
+        <v>35</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9036,10 +8916,8 @@
       <c r="B122" t="n">
         <v>62</v>
       </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C122" t="n">
+        <v>33</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9176,10 +9054,8 @@
       <c r="B124" t="n">
         <v>62</v>
       </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C124" t="n">
+        <v>37</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9328,10 +9204,8 @@
       <c r="B126" t="n">
         <v>81</v>
       </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C126" t="n">
+        <v>36</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9534,10 +9408,8 @@
       <c r="B129" t="n">
         <v>86</v>
       </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
+      <c r="C129" t="n">
+        <v>41</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9606,10 +9478,8 @@
       <c r="B130" t="n">
         <v>70</v>
       </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
+      <c r="C130" t="n">
+        <v>55</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9684,10 +9554,8 @@
       <c r="B131" t="n">
         <v>57</v>
       </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C131" t="n">
+        <v>33</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9894,10 +9762,8 @@
       <c r="B134" t="n">
         <v>63</v>
       </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="C134" t="n">
+        <v>30</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10104,10 +9970,8 @@
       <c r="B137" t="n">
         <v>80</v>
       </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C137" t="n">
+        <v>37</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10176,10 +10040,8 @@
       <c r="B138" t="n">
         <v>85</v>
       </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C138" t="n">
+        <v>37</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10458,10 +10320,8 @@
       <c r="B142" t="n">
         <v>84</v>
       </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C142" t="n">
+        <v>37</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10530,10 +10390,8 @@
       <c r="B143" t="n">
         <v>71</v>
       </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C143" t="n">
+        <v>36</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10662,10 +10520,8 @@
       <c r="B145" t="n">
         <v>69</v>
       </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>38.5</t>
-        </is>
+      <c r="C145" t="n">
+        <v>38.5</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10736,10 +10592,8 @@
       <c r="B146" t="n">
         <v>67</v>
       </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="C146" t="n">
+        <v>30</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10808,10 +10662,8 @@
       <c r="B147" t="n">
         <v>61</v>
       </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>35.5</t>
-        </is>
+      <c r="C147" t="n">
+        <v>35.5</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10880,10 +10732,8 @@
       <c r="B148" t="n">
         <v>53</v>
       </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="C148" t="n">
+        <v>32</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10956,10 +10806,8 @@
       <c r="B149" t="n">
         <v>59</v>
       </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="C149" t="n">
+        <v>30</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11030,10 +10878,8 @@
       <c r="B150" t="n">
         <v>77</v>
       </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+      <c r="C150" t="n">
+        <v>38</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11098,10 +10944,8 @@
       <c r="B151" t="n">
         <v>72</v>
       </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C151" t="n">
+        <v>36</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11166,10 +11010,8 @@
       <c r="B152" t="n">
         <v>70</v>
       </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+      <c r="C152" t="n">
+        <v>38</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11370,10 +11212,8 @@
       <c r="B155" t="n">
         <v>78</v>
       </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C155" t="n">
+        <v>34</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11442,10 +11282,8 @@
       <c r="B156" t="n">
         <v>78</v>
       </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C156" t="n">
+        <v>37</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11578,10 +11416,8 @@
       <c r="B158" t="n">
         <v>66</v>
       </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>32.5</t>
-        </is>
+      <c r="C158" t="n">
+        <v>32.5</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11726,10 +11562,8 @@
       <c r="B160" t="n">
         <v>78</v>
       </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C160" t="n">
+        <v>34</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11798,10 +11632,8 @@
       <c r="B161" t="n">
         <v>65</v>
       </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>32.5</t>
-        </is>
+      <c r="C161" t="n">
+        <v>32.5</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11870,10 +11702,8 @@
       <c r="B162" t="n">
         <v>76</v>
       </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="C162" t="n">
+        <v>30</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12082,10 +11912,8 @@
       <c r="B165" t="n">
         <v>76</v>
       </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C165" t="n">
+        <v>34</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12148,10 +11976,8 @@
       <c r="B166" t="n">
         <v>72</v>
       </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C166" t="n">
+        <v>34</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12290,10 +12116,8 @@
       <c r="B168" t="n">
         <v>83</v>
       </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="C168" t="n">
+        <v>40</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12502,10 +12326,8 @@
       <c r="B171" t="n">
         <v>75</v>
       </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>33.5</t>
-        </is>
+      <c r="C171" t="n">
+        <v>33.5</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12706,10 +12528,8 @@
       <c r="B174" t="n">
         <v>70</v>
       </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C174" t="n">
+        <v>36</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12918,10 +12738,8 @@
       <c r="B177" t="n">
         <v>73</v>
       </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C177" t="n">
+        <v>34</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13276,10 +13094,8 @@
       <c r="B182" t="n">
         <v>61</v>
       </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C182" t="n">
+        <v>35</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13354,10 +13170,8 @@
       <c r="B183" t="n">
         <v>64</v>
       </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C183" t="n">
+        <v>37</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13500,10 +13314,8 @@
       <c r="B185" t="n">
         <v>70</v>
       </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C185" t="n">
+        <v>36</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13572,10 +13384,8 @@
       <c r="B186" t="n">
         <v>64</v>
       </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C186" t="n">
+        <v>37</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13784,10 +13594,8 @@
       <c r="B189" t="n">
         <v>59</v>
       </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C189" t="n">
+        <v>34</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13856,10 +13664,8 @@
       <c r="B190" t="n">
         <v>69</v>
       </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="C190" t="n">
+        <v>40</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14000,10 +13806,8 @@
       <c r="B192" t="n">
         <v>60</v>
       </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="C192" t="n">
+        <v>32</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14072,10 +13876,8 @@
       <c r="B193" t="n">
         <v>66</v>
       </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C193" t="n">
+        <v>36</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14424,10 +14226,8 @@
       <c r="B198" t="n">
         <v>80</v>
       </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="C198" t="n">
+        <v>32</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14572,10 +14372,8 @@
       <c r="B200" t="n">
         <v>72</v>
       </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C200" t="n">
+        <v>33</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14640,10 +14438,8 @@
       <c r="B201" t="n">
         <v>72</v>
       </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
+      <c r="C201" t="n">
+        <v>31</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14712,10 +14508,8 @@
       <c r="B202" t="n">
         <v>80</v>
       </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C202" t="n">
+        <v>34</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14922,10 +14716,8 @@
       <c r="B205" t="n">
         <v>73</v>
       </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
+      <c r="C205" t="n">
+        <v>28</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15132,10 +14924,8 @@
       <c r="B208" t="n">
         <v>82</v>
       </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="C208" t="n">
+        <v>32</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15276,10 +15066,8 @@
       <c r="B210" t="n">
         <v>82</v>
       </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="C210" t="n">
+        <v>32</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15424,10 +15212,8 @@
       <c r="B212" t="n">
         <v>80</v>
       </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="C212" t="n">
+        <v>32</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15566,10 +15352,8 @@
       <c r="B214" t="n">
         <v>75</v>
       </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+      <c r="C214" t="n">
+        <v>25</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15708,10 +15492,8 @@
       <c r="B216" t="n">
         <v>68</v>
       </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C216" t="n">
+        <v>36</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15778,10 +15560,8 @@
       <c r="B217" t="n">
         <v>81</v>
       </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
+      <c r="C217" t="n">
+        <v>42</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16888,10 +16668,8 @@
       <c r="B233" t="n">
         <v>65</v>
       </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C233" t="n">
+        <v>37</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17032,10 +16810,8 @@
       <c r="B235" t="n">
         <v>66</v>
       </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C235" t="n">
+        <v>36</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17110,10 +16886,8 @@
       <c r="B236" t="n">
         <v>58</v>
       </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="C236" t="n">
+        <v>30</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17182,10 +16956,8 @@
       <c r="B237" t="n">
         <v>87</v>
       </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="C237" t="n">
+        <v>40</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17254,10 +17026,8 @@
       <c r="B238" t="n">
         <v>75</v>
       </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C238" t="n">
+        <v>37</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17394,10 +17164,8 @@
       <c r="B240" t="n">
         <v>65</v>
       </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+      <c r="C240" t="n">
+        <v>38</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17534,10 +17302,8 @@
       <c r="B242" t="n">
         <v>75</v>
       </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="C242" t="n">
+        <v>30</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17684,10 +17450,8 @@
       <c r="B244" t="n">
         <v>74</v>
       </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="C244" t="n">
+        <v>32</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17756,10 +17520,8 @@
       <c r="B245" t="n">
         <v>66</v>
       </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C245" t="n">
+        <v>35</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17830,10 +17592,8 @@
       <c r="B246" t="n">
         <v>73</v>
       </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>36.6</t>
-        </is>
+      <c r="C246" t="n">
+        <v>36.6</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18176,10 +17936,8 @@
       <c r="B251" t="n">
         <v>70</v>
       </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C251" t="n">
+        <v>35</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18312,10 +18070,8 @@
       <c r="B253" t="n">
         <v>68</v>
       </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C253" t="n">
+        <v>34</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19070,10 +18826,8 @@
       <c r="B264" t="n">
         <v>81</v>
       </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
+      <c r="C264" t="n">
+        <v>28</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19212,10 +18966,8 @@
       <c r="B266" t="n">
         <v>82</v>
       </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+      <c r="C266" t="n">
+        <v>38</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19344,10 +19096,8 @@
       <c r="B268" t="n">
         <v>75</v>
       </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="C268" t="n">
+        <v>40</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19556,10 +19306,8 @@
       <c r="B271" t="n">
         <v>60</v>
       </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="C271" t="n">
+        <v>30</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19636,10 +19384,8 @@
       <c r="B272" t="n">
         <v>68</v>
       </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C272" t="n">
+        <v>33</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19708,10 +19454,8 @@
       <c r="B273" t="n">
         <v>63</v>
       </c>
-      <c r="C273" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C273" t="n">
+        <v>35</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19786,10 +19530,8 @@
       <c r="B274" t="n">
         <v>71</v>
       </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C274" t="n">
+        <v>33</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20190,10 +19932,8 @@
       <c r="B280" t="n">
         <v>70</v>
       </c>
-      <c r="C280" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C280" t="n">
+        <v>36</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20318,10 +20058,8 @@
       <c r="B282" t="n">
         <v>63</v>
       </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C282" t="n">
+        <v>33</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20520,10 +20258,8 @@
       <c r="B285" t="n">
         <v>70</v>
       </c>
-      <c r="C285" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
+      <c r="C285" t="n">
+        <v>41</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20598,10 +20334,8 @@
       <c r="B286" t="n">
         <v>56</v>
       </c>
-      <c r="C286" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C286" t="n">
+        <v>35</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20676,10 +20410,8 @@
       <c r="B287" t="n">
         <v>55</v>
       </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
+      <c r="C287" t="n">
+        <v>27</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20956,10 +20688,8 @@
       <c r="B291" t="n">
         <v>60</v>
       </c>
-      <c r="C291" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C291" t="n">
+        <v>36</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21028,10 +20758,8 @@
       <c r="B292" t="n">
         <v>46</v>
       </c>
-      <c r="C292" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="C292" t="n">
+        <v>40</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21304,10 +21032,8 @@
       <c r="B296" t="n">
         <v>81</v>
       </c>
-      <c r="C296" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+      <c r="C296" t="n">
+        <v>25</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21510,10 +21236,8 @@
       <c r="B299" t="n">
         <v>65</v>
       </c>
-      <c r="C299" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C299" t="n">
+        <v>33</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21652,10 +21376,8 @@
       <c r="B301" t="n">
         <v>51</v>
       </c>
-      <c r="C301" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="C301" t="n">
+        <v>30</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21728,10 +21450,8 @@
       <c r="B302" t="n">
         <v>65</v>
       </c>
-      <c r="C302" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="C302" t="n">
+        <v>32</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21804,10 +21524,8 @@
       <c r="B303" t="n">
         <v>72</v>
       </c>
-      <c r="C303" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C303" t="n">
+        <v>37</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21872,10 +21590,8 @@
       <c r="B304" t="n">
         <v>62</v>
       </c>
-      <c r="C304" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C304" t="n">
+        <v>37</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21946,10 +21662,8 @@
       <c r="B305" t="n">
         <v>96</v>
       </c>
-      <c r="C305" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
+      <c r="C305" t="n">
+        <v>47</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22100,10 +21814,8 @@
       <c r="B307" t="n">
         <v>56</v>
       </c>
-      <c r="C307" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="C307" t="n">
+        <v>30</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22172,10 +21884,8 @@
       <c r="B308" t="n">
         <v>61</v>
       </c>
-      <c r="C308" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C308" t="n">
+        <v>37</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22382,10 +22092,8 @@
       <c r="B311" t="n">
         <v>82</v>
       </c>
-      <c r="C311" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C311" t="n">
+        <v>37</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22526,10 +22234,8 @@
       <c r="B313" t="n">
         <v>86</v>
       </c>
-      <c r="C313" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
+      <c r="C313" t="n">
+        <v>42</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22588,10 +22294,8 @@
       <c r="B314" t="n">
         <v>92</v>
       </c>
-      <c r="C314" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C314" t="n">
+        <v>36</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23068,10 +22772,8 @@
       <c r="B321" t="n">
         <v>88</v>
       </c>
-      <c r="C321" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
+      <c r="C321" t="n">
+        <v>42</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23214,10 +22916,8 @@
       <c r="B323" t="n">
         <v>70</v>
       </c>
-      <c r="C323" t="inlineStr">
-        <is>
-          <t>34.5</t>
-        </is>
+      <c r="C323" t="n">
+        <v>34.5</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23490,10 +23190,8 @@
       <c r="B327" t="n">
         <v>66</v>
       </c>
-      <c r="C327" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
+      <c r="C327" t="n">
+        <v>39</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23766,10 +23464,8 @@
       <c r="B331" t="n">
         <v>74</v>
       </c>
-      <c r="C331" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C331" t="n">
+        <v>36</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24110,10 +23806,8 @@
       <c r="B336" t="n">
         <v>90</v>
       </c>
-      <c r="C336" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C336" t="n">
+        <v>36</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24316,10 +24010,8 @@
       <c r="B339" t="n">
         <v>78</v>
       </c>
-      <c r="C339" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C339" t="n">
+        <v>37</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24390,10 +24082,8 @@
       <c r="B340" t="n">
         <v>68</v>
       </c>
-      <c r="C340" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C340" t="n">
+        <v>36</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24600,10 +24290,8 @@
       <c r="B343" t="n">
         <v>79</v>
       </c>
-      <c r="C343" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C343" t="n">
+        <v>36</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24678,11 +24366,7 @@
       <c r="B344" t="n">
         <v>68</v>
       </c>
-      <c r="C344" t="inlineStr">
-        <is>
-          <t>’</t>
-        </is>
-      </c>
+      <c r="C344" t="inlineStr"/>
       <c r="D344" t="inlineStr">
         <is>
           <t>45x1</t>
@@ -24950,10 +24634,8 @@
       <c r="B348" t="n">
         <v>69</v>
       </c>
-      <c r="C348" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="C348" t="n">
+        <v>40</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25168,10 +24850,8 @@
       <c r="B351" t="n">
         <v>75</v>
       </c>
-      <c r="C351" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C351" t="n">
+        <v>35</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25374,10 +25054,8 @@
       <c r="B354" t="n">
         <v>51</v>
       </c>
-      <c r="C354" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
+      <c r="C354" t="n">
+        <v>42</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25864,10 +25542,8 @@
       <c r="B361" t="n">
         <v>63</v>
       </c>
-      <c r="C361" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C361" t="n">
+        <v>36</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25938,10 +25614,8 @@
       <c r="B362" t="n">
         <v>96</v>
       </c>
-      <c r="C362" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
+      <c r="C362" t="n">
+        <v>42</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26010,10 +25684,8 @@
       <c r="B363" t="n">
         <v>65</v>
       </c>
-      <c r="C363" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C363" t="n">
+        <v>35</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26290,10 +25962,8 @@
       <c r="B367" t="n">
         <v>60</v>
       </c>
-      <c r="C367" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="C367" t="n">
+        <v>30</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26362,10 +26032,8 @@
       <c r="B368" t="n">
         <v>78</v>
       </c>
-      <c r="C368" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="C368" t="n">
+        <v>30</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26434,10 +26102,8 @@
       <c r="B369" t="n">
         <v>71</v>
       </c>
-      <c r="C369" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C369" t="n">
+        <v>33</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26502,10 +26168,8 @@
       <c r="B370" t="n">
         <v>76</v>
       </c>
-      <c r="C370" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C370" t="n">
+        <v>33</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26572,10 +26236,8 @@
       <c r="B371" t="n">
         <v>72</v>
       </c>
-      <c r="C371" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C371" t="n">
+        <v>37</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26644,10 +26306,8 @@
       <c r="B372" t="n">
         <v>70</v>
       </c>
-      <c r="C372" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
+      <c r="C372" t="n">
+        <v>31</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26766,10 +26426,8 @@
       <c r="B374" t="n">
         <v>78</v>
       </c>
-      <c r="C374" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C374" t="n">
+        <v>35</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26908,10 +26566,8 @@
       <c r="B376" t="n">
         <v>68</v>
       </c>
-      <c r="C376" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="C376" t="n">
+        <v>32</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -27044,10 +26700,8 @@
       <c r="B378" t="n">
         <v>56</v>
       </c>
-      <c r="C378" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
+      <c r="C378" t="n">
+        <v>29</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27112,10 +26766,8 @@
       <c r="B379" t="n">
         <v>78</v>
       </c>
-      <c r="C379" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="C379" t="n">
+        <v>32</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27260,10 +26912,8 @@
       <c r="B381" t="n">
         <v>82</v>
       </c>
-      <c r="C381" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
+      <c r="C381" t="n">
+        <v>39</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27402,10 +27052,8 @@
       <c r="B383" t="n">
         <v>85</v>
       </c>
-      <c r="C383" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
+      <c r="C383" t="n">
+        <v>39</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27536,10 +27184,8 @@
       <c r="B385" t="n">
         <v>69</v>
       </c>
-      <c r="C385" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C385" t="n">
+        <v>35</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27680,10 +27326,8 @@
       <c r="B387" t="n">
         <v>70</v>
       </c>
-      <c r="C387" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="C387" t="n">
+        <v>40</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27754,10 +27398,8 @@
       <c r="B388" t="n">
         <v>63</v>
       </c>
-      <c r="C388" t="inlineStr">
-        <is>
-          <t>33.8..</t>
-        </is>
+      <c r="C388" t="n">
+        <v>33.8</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -28298,10 +27940,8 @@
       <c r="B396" t="n">
         <v>85</v>
       </c>
-      <c r="C396" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C396" t="n">
+        <v>37</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28374,10 +28014,8 @@
       <c r="B397" t="n">
         <v>65</v>
       </c>
-      <c r="C397" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C397" t="n">
+        <v>34</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28794,10 +28432,8 @@
       <c r="B403" t="n">
         <v>75</v>
       </c>
-      <c r="C403" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C403" t="n">
+        <v>33</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28874,10 +28510,8 @@
       <c r="B404" t="n">
         <v>83</v>
       </c>
-      <c r="C404" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
+      <c r="C404" t="n">
+        <v>39</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28946,10 +28580,8 @@
       <c r="B405" t="n">
         <v>65</v>
       </c>
-      <c r="C405" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C405" t="n">
+        <v>33</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -29012,10 +28644,8 @@
       <c r="B406" t="n">
         <v>74</v>
       </c>
-      <c r="C406" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
+      <c r="C406" t="n">
+        <v>43</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -29142,10 +28772,8 @@
       <c r="B408" t="n">
         <v>84</v>
       </c>
-      <c r="C408" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C408" t="n">
+        <v>34</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -29278,10 +28906,8 @@
       <c r="B410" t="n">
         <v>83</v>
       </c>
-      <c r="C410" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C410" t="n">
+        <v>37</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -29352,10 +28978,8 @@
       <c r="B411" t="n">
         <v>75</v>
       </c>
-      <c r="C411" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
+      <c r="C411" t="n">
+        <v>39</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29424,10 +29048,8 @@
       <c r="B412" t="n">
         <v>77</v>
       </c>
-      <c r="C412" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C412" t="n">
+        <v>37</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29498,10 +29120,8 @@
       <c r="B413" t="n">
         <v>68</v>
       </c>
-      <c r="C413" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C413" t="n">
+        <v>33</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29570,10 +29190,8 @@
       <c r="B414" t="n">
         <v>75</v>
       </c>
-      <c r="C414" t="inlineStr">
-        <is>
-          <t>35.5</t>
-        </is>
+      <c r="C414" t="n">
+        <v>35.5</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29648,10 +29266,8 @@
       <c r="B415" t="n">
         <v>68</v>
       </c>
-      <c r="C415" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
+      <c r="C415" t="n">
+        <v>31</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29724,10 +29340,8 @@
       <c r="B416" t="n">
         <v>70</v>
       </c>
-      <c r="C416" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
+      <c r="C416" t="n">
+        <v>28</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29998,10 +29612,8 @@
       <c r="B420" t="n">
         <v>72</v>
       </c>
-      <c r="C420" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C420" t="n">
+        <v>36</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -30220,10 +29832,8 @@
       <c r="B423" t="n">
         <v>70</v>
       </c>
-      <c r="C423" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C423" t="n">
+        <v>35</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -30498,10 +30108,8 @@
       <c r="B427" t="n">
         <v>68</v>
       </c>
-      <c r="C427" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C427" t="n">
+        <v>33</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -30564,10 +30172,8 @@
       <c r="B428" t="n">
         <v>80</v>
       </c>
-      <c r="C428" t="inlineStr">
-        <is>
-          <t>33.5</t>
-        </is>
+      <c r="C428" t="n">
+        <v>33.5</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30636,10 +30242,8 @@
       <c r="B429" t="n">
         <v>68</v>
       </c>
-      <c r="C429" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C429" t="n">
+        <v>33</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30702,10 +30306,8 @@
       <c r="B430" t="n">
         <v>68</v>
       </c>
-      <c r="C430" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C430" t="n">
+        <v>33</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30768,10 +30370,8 @@
       <c r="B431" t="n">
         <v>75</v>
       </c>
-      <c r="C431" t="inlineStr">
-        <is>
-          <t>38.5</t>
-        </is>
+      <c r="C431" t="n">
+        <v>38.5</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30986,10 +30586,8 @@
       <c r="B434" t="n">
         <v>79</v>
       </c>
-      <c r="C434" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+      <c r="C434" t="n">
+        <v>38</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -31138,10 +30736,8 @@
       <c r="B436" t="n">
         <v>82</v>
       </c>
-      <c r="C436" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C436" t="n">
+        <v>37</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -31286,10 +30882,8 @@
       <c r="B438" t="n">
         <v>71</v>
       </c>
-      <c r="C438" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
+      <c r="C438" t="n">
+        <v>39</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -31358,10 +30952,8 @@
       <c r="B439" t="n">
         <v>62</v>
       </c>
-      <c r="C439" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C439" t="n">
+        <v>36</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -31434,10 +31026,8 @@
       <c r="B440" t="n">
         <v>77</v>
       </c>
-      <c r="C440" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C440" t="n">
+        <v>33</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -31574,10 +31164,8 @@
       <c r="B442" t="n">
         <v>66</v>
       </c>
-      <c r="C442" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C442" t="n">
+        <v>34</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -31712,10 +31300,8 @@
       <c r="B444" t="n">
         <v>60</v>
       </c>
-      <c r="C444" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
+      <c r="C444" t="n">
+        <v>27</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -31910,10 +31496,8 @@
       <c r="B447" t="n">
         <v>80</v>
       </c>
-      <c r="C447" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C447" t="n">
+        <v>36</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -32054,10 +31638,8 @@
       <c r="B449" t="n">
         <v>68</v>
       </c>
-      <c r="C449" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C449" t="n">
+        <v>37</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -32340,10 +31922,8 @@
       <c r="B453" t="n">
         <v>77</v>
       </c>
-      <c r="C453" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
+      <c r="C453" t="n">
+        <v>41</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -32406,10 +31986,8 @@
       <c r="B454" t="n">
         <v>70</v>
       </c>
-      <c r="C454" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
+      <c r="C454" t="n">
+        <v>31</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -32472,10 +32050,8 @@
       <c r="B455" t="n">
         <v>72</v>
       </c>
-      <c r="C455" t="inlineStr">
-        <is>
-          <t>33.3</t>
-        </is>
+      <c r="C455" t="n">
+        <v>33.3</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -32542,10 +32118,8 @@
       <c r="B456" t="n">
         <v>60</v>
       </c>
-      <c r="C456" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="C456" t="n">
+        <v>30</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -32886,10 +32460,8 @@
       <c r="B461" t="n">
         <v>84</v>
       </c>
-      <c r="C461" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C461" t="n">
+        <v>37</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -32968,10 +32540,8 @@
       <c r="B462" t="n">
         <v>55</v>
       </c>
-      <c r="C462" t="inlineStr">
-        <is>
-          <t>32.5</t>
-        </is>
+      <c r="C462" t="n">
+        <v>32.5</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -33036,10 +32606,8 @@
       <c r="B463" t="n">
         <v>69</v>
       </c>
-      <c r="C463" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="C463" t="n">
+        <v>40</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -33386,10 +32954,8 @@
       <c r="B468" t="n">
         <v>81</v>
       </c>
-      <c r="C468" t="inlineStr">
-        <is>
-          <t>38.5</t>
-        </is>
+      <c r="C468" t="n">
+        <v>38.5</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -33462,10 +33028,8 @@
       <c r="B469" t="n">
         <v>88</v>
       </c>
-      <c r="C469" t="inlineStr">
-        <is>
-          <t>39.7</t>
-        </is>
+      <c r="C469" t="n">
+        <v>39.7</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -33602,10 +33166,8 @@
       <c r="B471" t="n">
         <v>86</v>
       </c>
-      <c r="C471" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C471" t="n">
+        <v>36</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -33952,10 +33514,8 @@
       <c r="B476" t="n">
         <v>80</v>
       </c>
-      <c r="C476" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
+      <c r="C476" t="n">
+        <v>39</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -34096,10 +33656,8 @@
       <c r="B478" t="n">
         <v>73</v>
       </c>
-      <c r="C478" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C478" t="n">
+        <v>35</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -34172,10 +33730,8 @@
       <c r="B479" t="n">
         <v>70</v>
       </c>
-      <c r="C479" t="inlineStr">
-        <is>
-          <t>29.5</t>
-        </is>
+      <c r="C479" t="n">
+        <v>29.5</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -34240,10 +33796,8 @@
       <c r="B480" t="n">
         <v>83</v>
       </c>
-      <c r="C480" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C480" t="n">
+        <v>34</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -34650,10 +34204,8 @@
       <c r="B486" t="n">
         <v>69</v>
       </c>
-      <c r="C486" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C486" t="n">
+        <v>36</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -34792,10 +34344,8 @@
       <c r="B488" t="n">
         <v>76</v>
       </c>
-      <c r="C488" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C488" t="n">
+        <v>35</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -34858,10 +34408,8 @@
       <c r="B489" t="n">
         <v>73</v>
       </c>
-      <c r="C489" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
+      <c r="C489" t="n">
+        <v>29</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -35000,10 +34548,8 @@
       <c r="B491" t="n">
         <v>57</v>
       </c>
-      <c r="C491" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C491" t="n">
+        <v>33</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -35062,10 +34608,8 @@
       <c r="B492" t="n">
         <v>75</v>
       </c>
-      <c r="C492" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
+      <c r="C492" t="n">
+        <v>43</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -35136,10 +34680,8 @@
       <c r="B493" t="n">
         <v>75</v>
       </c>
-      <c r="C493" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
+      <c r="C493" t="n">
+        <v>43</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -35210,10 +34752,8 @@
       <c r="B494" t="n">
         <v>78</v>
       </c>
-      <c r="C494" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C494" t="n">
+        <v>35</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -35286,10 +34826,8 @@
       <c r="B495" t="n">
         <v>85</v>
       </c>
-      <c r="C495" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+      <c r="C495" t="n">
+        <v>25</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -35436,10 +34974,8 @@
       <c r="B497" t="n">
         <v>54</v>
       </c>
-      <c r="C497" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
+      <c r="C497" t="n">
+        <v>28</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -35508,10 +35044,8 @@
       <c r="B498" t="n">
         <v>70</v>
       </c>
-      <c r="C498" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C498" t="n">
+        <v>37</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -35576,10 +35110,8 @@
       <c r="B499" t="n">
         <v>69</v>
       </c>
-      <c r="C499" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
+      <c r="C499" t="n">
+        <v>39</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -35656,10 +35188,8 @@
       <c r="B500" t="n">
         <v>61</v>
       </c>
-      <c r="C500" t="inlineStr">
-        <is>
-          <t>32.5</t>
-        </is>
+      <c r="C500" t="n">
+        <v>32.5</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -35936,10 +35466,8 @@
       <c r="B504" t="n">
         <v>80.90000000000001</v>
       </c>
-      <c r="C504" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
+      <c r="C504" t="n">
+        <v>39</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -36004,10 +35532,8 @@
       <c r="B505" t="n">
         <v>75</v>
       </c>
-      <c r="C505" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
+      <c r="C505" t="n">
+        <v>39</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -36356,10 +35882,8 @@
       <c r="B510" t="n">
         <v>76</v>
       </c>
-      <c r="C510" t="inlineStr">
-        <is>
-          <t>35.5</t>
-        </is>
+      <c r="C510" t="n">
+        <v>35.5</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -36830,10 +36354,8 @@
       <c r="B517" t="n">
         <v>64</v>
       </c>
-      <c r="C517" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C517" t="n">
+        <v>34</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -37036,10 +36558,8 @@
       <c r="B520" t="n">
         <v>76</v>
       </c>
-      <c r="C520" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C520" t="n">
+        <v>37</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -37442,10 +36962,8 @@
       <c r="B526" t="n">
         <v>72</v>
       </c>
-      <c r="C526" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C526" t="n">
+        <v>34</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -37518,10 +37036,8 @@
       <c r="B527" t="n">
         <v>72</v>
       </c>
-      <c r="C527" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C527" t="n">
+        <v>34</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -37798,10 +37314,8 @@
       <c r="B531" t="n">
         <v>77</v>
       </c>
-      <c r="C531" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+      <c r="C531" t="n">
+        <v>38</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -37872,10 +37386,8 @@
       <c r="B532" t="n">
         <v>60</v>
       </c>
-      <c r="C532" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C532" t="n">
+        <v>34</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -38016,10 +37528,8 @@
       <c r="B534" t="n">
         <v>83</v>
       </c>
-      <c r="C534" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="C534" t="n">
+        <v>40</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -38158,10 +37668,8 @@
       <c r="B536" t="n">
         <v>80</v>
       </c>
-      <c r="C536" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C536" t="n">
+        <v>34</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -38512,10 +38020,8 @@
       <c r="B541" t="n">
         <v>86</v>
       </c>
-      <c r="C541" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="C541" t="n">
+        <v>40</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -38586,11 +38092,7 @@
       <c r="B542" t="n">
         <v>90</v>
       </c>
-      <c r="C542" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
-      </c>
+      <c r="C542" t="inlineStr"/>
       <c r="D542" t="inlineStr">
         <is>
           <t>82x1</t>
@@ -38780,10 +38282,8 @@
       <c r="B545" t="n">
         <v>74</v>
       </c>
-      <c r="C545" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+      <c r="C545" t="n">
+        <v>25</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -38856,11 +38356,7 @@
       <c r="B546" t="n">
         <v>70</v>
       </c>
-      <c r="C546" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="C546" t="inlineStr"/>
       <c r="D546" t="inlineStr">
         <is>
           <t>60x1</t>
@@ -39146,10 +38642,8 @@
       <c r="B550" t="n">
         <v>63</v>
       </c>
-      <c r="C550" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="C550" t="n">
+        <v>32</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -39218,10 +38712,8 @@
       <c r="B551" t="n">
         <v>81</v>
       </c>
-      <c r="C551" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C551" t="n">
+        <v>34</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -39296,10 +38788,8 @@
       <c r="B552" t="n">
         <v>80</v>
       </c>
-      <c r="C552" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C552" t="n">
+        <v>37</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -39436,10 +38926,8 @@
       <c r="B554" t="n">
         <v>70</v>
       </c>
-      <c r="C554" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C554" t="n">
+        <v>35</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -39580,10 +39068,8 @@
       <c r="B556" t="n">
         <v>64</v>
       </c>
-      <c r="C556" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
+      <c r="C556" t="n">
+        <v>31</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -39928,10 +39414,8 @@
       <c r="B561" t="n">
         <v>63</v>
       </c>
-      <c r="C561" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+      <c r="C561" t="n">
+        <v>38</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -40138,10 +39622,8 @@
       <c r="B564" t="n">
         <v>70</v>
       </c>
-      <c r="C564" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C564" t="n">
+        <v>37</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -40280,10 +39762,8 @@
       <c r="B566" t="n">
         <v>72</v>
       </c>
-      <c r="C566" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C566" t="n">
+        <v>36</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -40414,10 +39894,8 @@
       <c r="B568" t="n">
         <v>71</v>
       </c>
-      <c r="C568" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="C568" t="n">
+        <v>40</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -40482,10 +39960,8 @@
       <c r="B569" t="n">
         <v>69</v>
       </c>
-      <c r="C569" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C569" t="n">
+        <v>35</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -40554,10 +40030,8 @@
       <c r="B570" t="n">
         <v>65</v>
       </c>
-      <c r="C570" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="C570" t="n">
+        <v>30</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -40628,10 +40102,8 @@
       <c r="B571" t="n">
         <v>56</v>
       </c>
-      <c r="C571" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
+      <c r="C571" t="n">
+        <v>31</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -40768,10 +40240,8 @@
       <c r="B573" t="n">
         <v>67</v>
       </c>
-      <c r="C573" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="C573" t="n">
+        <v>40</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -40834,10 +40304,8 @@
       <c r="B574" t="n">
         <v>63</v>
       </c>
-      <c r="C574" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="C574" t="n">
+        <v>40</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -40912,10 +40380,8 @@
       <c r="B575" t="n">
         <v>62</v>
       </c>
-      <c r="C575" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C575" t="n">
+        <v>36</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -41046,10 +40512,8 @@
       <c r="B577" t="n">
         <v>93</v>
       </c>
-      <c r="C577" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
+      <c r="C577" t="n">
+        <v>41</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -41184,10 +40648,8 @@
       <c r="B579" t="n">
         <v>68</v>
       </c>
-      <c r="C579" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C579" t="n">
+        <v>33</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -41450,10 +40912,8 @@
       <c r="B583" t="n">
         <v>59</v>
       </c>
-      <c r="C583" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C583" t="n">
+        <v>35</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -41586,10 +41046,8 @@
       <c r="B585" t="n">
         <v>65</v>
       </c>
-      <c r="C585" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C585" t="n">
+        <v>34</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -41650,10 +41108,8 @@
       <c r="B586" t="n">
         <v>67</v>
       </c>
-      <c r="C586" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C586" t="n">
+        <v>34</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -41792,10 +41248,8 @@
       <c r="B588" t="n">
         <v>52</v>
       </c>
-      <c r="C588" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C588" t="n">
+        <v>35</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -41924,10 +41378,8 @@
       <c r="B590" t="n">
         <v>84</v>
       </c>
-      <c r="C590" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
+      <c r="C590" t="n">
+        <v>41</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -42460,10 +41912,8 @@
       <c r="B598" t="n">
         <v>74</v>
       </c>
-      <c r="C598" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C598" t="n">
+        <v>35</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -42606,10 +42056,8 @@
       <c r="B600" t="n">
         <v>63</v>
       </c>
-      <c r="C600" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C600" t="n">
+        <v>35</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -42806,10 +42254,8 @@
       <c r="B603" t="n">
         <v>72</v>
       </c>
-      <c r="C603" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+      <c r="C603" t="n">
+        <v>38</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -42940,10 +42386,8 @@
       <c r="B605" t="n">
         <v>59</v>
       </c>
-      <c r="C605" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="C605" t="n">
+        <v>15</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -43216,10 +42660,8 @@
       <c r="B609" t="n">
         <v>72</v>
       </c>
-      <c r="C609" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C609" t="n">
+        <v>33</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -43804,10 +43246,8 @@
       <c r="B618" t="n">
         <v>75</v>
       </c>
-      <c r="C618" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C618" t="n">
+        <v>33</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -43874,10 +43314,8 @@
       <c r="B619" t="n">
         <v>70</v>
       </c>
-      <c r="C619" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
+      <c r="C619" t="n">
+        <v>28</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -44084,10 +43522,8 @@
       <c r="B622" t="n">
         <v>73</v>
       </c>
-      <c r="C622" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C622" t="n">
+        <v>37</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -44290,10 +43726,8 @@
       <c r="B625" t="n">
         <v>65</v>
       </c>
-      <c r="C625" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
+      <c r="C625" t="n">
+        <v>42</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -44358,10 +43792,8 @@
       <c r="B626" t="n">
         <v>61</v>
       </c>
-      <c r="C626" t="inlineStr">
-        <is>
-          <t>38.5</t>
-        </is>
+      <c r="C626" t="n">
+        <v>38.5</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -44420,10 +43852,8 @@
       <c r="B627" t="n">
         <v>73</v>
       </c>
-      <c r="C627" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
+      <c r="C627" t="n">
+        <v>28</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -44498,10 +43928,8 @@
       <c r="B628" t="n">
         <v>67</v>
       </c>
-      <c r="C628" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C628" t="n">
+        <v>35</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -44570,10 +43998,8 @@
       <c r="B629" t="n">
         <v>73</v>
       </c>
-      <c r="C629" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C629" t="n">
+        <v>37</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -44644,10 +44070,8 @@
       <c r="B630" t="n">
         <v>75</v>
       </c>
-      <c r="C630" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C630" t="n">
+        <v>33</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -44780,10 +44204,8 @@
       <c r="B632" t="n">
         <v>82</v>
       </c>
-      <c r="C632" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
+      <c r="C632" t="n">
+        <v>39</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -44854,10 +44276,8 @@
       <c r="B633" t="n">
         <v>67.2</v>
       </c>
-      <c r="C633" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
+      <c r="C633" t="n">
+        <v>29</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -45248,10 +44668,8 @@
       <c r="B639" t="n">
         <v>84</v>
       </c>
-      <c r="C639" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
+      <c r="C639" t="n">
+        <v>90</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -45590,10 +45008,8 @@
       <c r="B644" t="n">
         <v>72</v>
       </c>
-      <c r="C644" t="inlineStr">
-        <is>
-          <t>36-</t>
-        </is>
+      <c r="C644" t="n">
+        <v>36</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -45788,10 +45204,8 @@
       <c r="B647" t="n">
         <v>58</v>
       </c>
-      <c r="C647" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C647" t="n">
+        <v>35</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -45934,10 +45348,8 @@
       <c r="B649" t="n">
         <v>72</v>
       </c>
-      <c r="C649" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C649" t="n">
+        <v>37</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -46598,10 +46010,8 @@
       <c r="B659" t="n">
         <v>77</v>
       </c>
-      <c r="C659" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C659" t="n">
+        <v>33</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -46670,10 +46080,8 @@
       <c r="B660" t="n">
         <v>81</v>
       </c>
-      <c r="C660" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+      <c r="C660" t="n">
+        <v>38</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -47064,10 +46472,8 @@
       <c r="B666" t="n">
         <v>60</v>
       </c>
-      <c r="C666" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C666" t="n">
+        <v>35</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -47188,10 +46594,8 @@
       <c r="B668" t="n">
         <v>79</v>
       </c>
-      <c r="C668" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="C668" t="n">
+        <v>30</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -47328,10 +46732,8 @@
       <c r="B670" t="n">
         <v>68</v>
       </c>
-      <c r="C670" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+      <c r="C670" t="n">
+        <v>38</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -47472,10 +46874,8 @@
       <c r="B672" t="n">
         <v>73</v>
       </c>
-      <c r="C672" t="inlineStr">
-        <is>
-          <t>34.5</t>
-        </is>
+      <c r="C672" t="n">
+        <v>34.5</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -47612,10 +47012,8 @@
       <c r="B674" t="n">
         <v>71</v>
       </c>
-      <c r="C674" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
+      <c r="C674" t="n">
+        <v>41</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -47890,10 +47288,8 @@
       <c r="B678" t="n">
         <v>61</v>
       </c>
-      <c r="C678" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+      <c r="C678" t="n">
+        <v>38</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -48332,10 +47728,8 @@
       <c r="B685" t="n">
         <v>76</v>
       </c>
-      <c r="C685" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="C685" t="n">
+        <v>30</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -48406,10 +47800,8 @@
       <c r="B686" t="n">
         <v>76</v>
       </c>
-      <c r="C686" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C686" t="n">
+        <v>37</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -48554,10 +47946,8 @@
       <c r="B688" t="n">
         <v>62</v>
       </c>
-      <c r="C688" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="C688" t="n">
+        <v>32</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -48688,10 +48078,8 @@
       <c r="B690" t="n">
         <v>62</v>
       </c>
-      <c r="C690" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
+      <c r="C690" t="n">
+        <v>31</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -48832,10 +48220,8 @@
       <c r="B692" t="n">
         <v>75.5</v>
       </c>
-      <c r="C692" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+      <c r="C692" t="n">
+        <v>38</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -48908,10 +48294,8 @@
       <c r="B693" t="n">
         <v>72</v>
       </c>
-      <c r="C693" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C693" t="n">
+        <v>37</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -49296,10 +48680,8 @@
       <c r="B699" t="n">
         <v>82</v>
       </c>
-      <c r="C699" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C699" t="n">
+        <v>33</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -49358,10 +48740,8 @@
       <c r="B700" t="n">
         <v>66</v>
       </c>
-      <c r="C700" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C700" t="n">
+        <v>36</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -49430,10 +48810,8 @@
       <c r="B701" t="n">
         <v>87</v>
       </c>
-      <c r="C701" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="C701" t="n">
+        <v>32</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -49642,10 +49020,8 @@
       <c r="B704" t="n">
         <v>73</v>
       </c>
-      <c r="C704" t="inlineStr">
-        <is>
-          <t>38.5</t>
-        </is>
+      <c r="C704" t="n">
+        <v>38.5</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -50112,10 +49488,8 @@
       <c r="B711" t="n">
         <v>70</v>
       </c>
-      <c r="C711" t="inlineStr">
-        <is>
-          <t>33.7</t>
-        </is>
+      <c r="C711" t="n">
+        <v>33.7</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -50182,10 +49556,8 @@
       <c r="B712" t="n">
         <v>60</v>
       </c>
-      <c r="C712" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="C712" t="n">
+        <v>30</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -50388,10 +49760,8 @@
       <c r="B715" t="n">
         <v>71</v>
       </c>
-      <c r="C715" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C715" t="n">
+        <v>34</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -50450,10 +49820,8 @@
       <c r="B716" t="n">
         <v>72</v>
       </c>
-      <c r="C716" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="C716" t="n">
+        <v>40</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -50520,10 +49888,8 @@
       <c r="B717" t="n">
         <v>80</v>
       </c>
-      <c r="C717" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C717" t="n">
+        <v>37</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -50662,10 +50028,8 @@
       <c r="B719" t="n">
         <v>70</v>
       </c>
-      <c r="C719" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C719" t="n">
+        <v>34</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -51218,10 +50582,8 @@
       <c r="B727" t="n">
         <v>74</v>
       </c>
-      <c r="C727" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="C727" t="n">
+        <v>30</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -51364,10 +50726,8 @@
       <c r="B729" t="n">
         <v>73</v>
       </c>
-      <c r="C729" t="inlineStr">
-        <is>
-          <t>40.5</t>
-        </is>
+      <c r="C729" t="n">
+        <v>40.5</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -51570,10 +50930,8 @@
       <c r="B732" t="n">
         <v>78</v>
       </c>
-      <c r="C732" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C732" t="n">
+        <v>34</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -52064,10 +51422,8 @@
       <c r="B739" t="n">
         <v>85</v>
       </c>
-      <c r="C739" t="inlineStr">
-        <is>
-          <t>37.5</t>
-        </is>
+      <c r="C739" t="n">
+        <v>37.5</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -52142,10 +51498,8 @@
       <c r="B740" t="n">
         <v>63</v>
       </c>
-      <c r="C740" t="inlineStr">
-        <is>
-          <t>44.5</t>
-        </is>
+      <c r="C740" t="n">
+        <v>44.5</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -52216,10 +51570,8 @@
       <c r="B741" t="n">
         <v>77</v>
       </c>
-      <c r="C741" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C741" t="n">
+        <v>36</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -52290,10 +51642,8 @@
       <c r="B742" t="n">
         <v>60</v>
       </c>
-      <c r="C742" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C742" t="n">
+        <v>37</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -52608,10 +51958,8 @@
       <c r="B747" t="n">
         <v>66</v>
       </c>
-      <c r="C747" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="C747" t="n">
+        <v>30</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -52684,10 +52032,8 @@
       <c r="B748" t="n">
         <v>57</v>
       </c>
-      <c r="C748" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C748" t="n">
+        <v>33</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -52762,10 +52108,8 @@
       <c r="B749" t="n">
         <v>78</v>
       </c>
-      <c r="C749" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="C749" t="n">
+        <v>40</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -52836,10 +52180,8 @@
       <c r="B750" t="n">
         <v>72</v>
       </c>
-      <c r="C750" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C750" t="n">
+        <v>35</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -52970,10 +52312,8 @@
       <c r="B752" t="n">
         <v>78</v>
       </c>
-      <c r="C752" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="C752" t="n">
+        <v>40</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -53048,10 +52388,8 @@
       <c r="B753" t="n">
         <v>65</v>
       </c>
-      <c r="C753" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C753" t="n">
+        <v>34</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -53112,10 +52450,8 @@
       <c r="B754" t="n">
         <v>77</v>
       </c>
-      <c r="C754" t="inlineStr">
-        <is>
-          <t>37.5</t>
-        </is>
+      <c r="C754" t="n">
+        <v>37.5</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -53318,10 +52654,8 @@
       <c r="B757" t="n">
         <v>61</v>
       </c>
-      <c r="C757" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="C757" t="n">
+        <v>30</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -53448,10 +52782,8 @@
       <c r="B759" t="n">
         <v>68</v>
       </c>
-      <c r="C759" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C759" t="n">
+        <v>33</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -53858,10 +53190,8 @@
       <c r="B765" t="n">
         <v>94</v>
       </c>
-      <c r="C765" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C765" t="n">
+        <v>35</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -54054,10 +53384,8 @@
       <c r="B768" t="n">
         <v>63</v>
       </c>
-      <c r="C768" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C768" t="n">
+        <v>35</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -54126,10 +53454,8 @@
       <c r="B769" t="n">
         <v>76</v>
       </c>
-      <c r="C769" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C769" t="n">
+        <v>36</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -54552,10 +53878,8 @@
       <c r="B775" t="n">
         <v>62</v>
       </c>
-      <c r="C775" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C775" t="n">
+        <v>34</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -54896,10 +54220,8 @@
       <c r="B780" t="n">
         <v>41</v>
       </c>
-      <c r="C780" t="inlineStr">
-        <is>
-          <t>28.1</t>
-        </is>
+      <c r="C780" t="n">
+        <v>28.1</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -54964,10 +54286,8 @@
       <c r="B781" t="n">
         <v>62</v>
       </c>
-      <c r="C781" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C781" t="n">
+        <v>34</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -55102,10 +54422,8 @@
       <c r="B783" t="n">
         <v>70</v>
       </c>
-      <c r="C783" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
+      <c r="C783" t="n">
+        <v>27</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -55168,10 +54486,8 @@
       <c r="B784" t="n">
         <v>63</v>
       </c>
-      <c r="C784" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+      <c r="C784" t="n">
+        <v>25</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -55310,10 +54626,8 @@
       <c r="B786" t="n">
         <v>73</v>
       </c>
-      <c r="C786" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C786" t="n">
+        <v>36</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -55376,10 +54690,8 @@
       <c r="B787" t="n">
         <v>55</v>
       </c>
-      <c r="C787" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
+      <c r="C787" t="n">
+        <v>39</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -55974,10 +55286,8 @@
       <c r="B796" t="n">
         <v>60</v>
       </c>
-      <c r="C796" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C796" t="n">
+        <v>36</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -56182,10 +55492,8 @@
       <c r="B799" t="n">
         <v>60</v>
       </c>
-      <c r="C799" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
+      <c r="C799" t="n">
+        <v>31</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -56396,10 +55704,8 @@
       <c r="B802" t="n">
         <v>73</v>
       </c>
-      <c r="C802" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C802" t="n">
+        <v>36</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -56756,10 +56062,8 @@
       <c r="B807" t="n">
         <v>60</v>
       </c>
-      <c r="C807" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
+      <c r="C807" t="n">
+        <v>26</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -57232,10 +56536,8 @@
       <c r="B814" t="n">
         <v>70</v>
       </c>
-      <c r="C814" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C814" t="n">
+        <v>37</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -57366,10 +56668,8 @@
       <c r="B816" t="n">
         <v>60</v>
       </c>
-      <c r="C816" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
+      <c r="C816" t="n">
+        <v>53</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -57436,10 +56736,8 @@
       <c r="B817" t="n">
         <v>65</v>
       </c>
-      <c r="C817" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="C817" t="n">
+        <v>30</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -57704,10 +57002,8 @@
       <c r="B821" t="n">
         <v>74</v>
       </c>
-      <c r="C821" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
+      <c r="C821" t="n">
+        <v>31</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -58262,10 +57558,8 @@
       <c r="B829" t="n">
         <v>58</v>
       </c>
-      <c r="C829" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="C829" t="n">
+        <v>20</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -58330,10 +57624,8 @@
       <c r="B830" t="n">
         <v>78</v>
       </c>
-      <c r="C830" t="inlineStr">
-        <is>
-          <t>37.5</t>
-        </is>
+      <c r="C830" t="n">
+        <v>37.5</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -58396,10 +57688,8 @@
       <c r="B831" t="n">
         <v>91</v>
       </c>
-      <c r="C831" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="C831" t="n">
+        <v>11</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -58588,10 +57878,8 @@
       <c r="B834" t="n">
         <v>60</v>
       </c>
-      <c r="C834" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
+      <c r="C834" t="n">
+        <v>27</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -58658,10 +57946,8 @@
       <c r="B835" t="n">
         <v>73</v>
       </c>
-      <c r="C835" t="inlineStr">
-        <is>
-          <t>34.5</t>
-        </is>
+      <c r="C835" t="n">
+        <v>34.5</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -59340,10 +58626,8 @@
       <c r="B845" t="n">
         <v>71</v>
       </c>
-      <c r="C845" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="C845" t="n">
+        <v>40</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -59414,10 +58698,8 @@
       <c r="B846" t="n">
         <v>71</v>
       </c>
-      <c r="C846" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="C846" t="n">
+        <v>40</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -59542,10 +58824,8 @@
       <c r="B848" t="n">
         <v>64</v>
       </c>
-      <c r="C848" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="C848" t="n">
+        <v>32</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -59820,10 +59100,8 @@
       <c r="B852" t="n">
         <v>57</v>
       </c>
-      <c r="C852" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="C852" t="n">
+        <v>30</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -59960,10 +59238,8 @@
       <c r="B854" t="n">
         <v>71.5</v>
       </c>
-      <c r="C854" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="C854" t="n">
+        <v>32</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -60274,10 +59550,8 @@
       <c r="B859" t="n">
         <v>79</v>
       </c>
-      <c r="C859" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+      <c r="C859" t="n">
+        <v>38</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -60348,10 +59622,8 @@
       <c r="B860" t="n">
         <v>76</v>
       </c>
-      <c r="C860" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
+      <c r="C860" t="n">
+        <v>29</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -60422,10 +59694,8 @@
       <c r="B861" t="n">
         <v>72</v>
       </c>
-      <c r="C861" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="C861" t="n">
+        <v>32</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -60496,10 +59766,8 @@
       <c r="B862" t="n">
         <v>68</v>
       </c>
-      <c r="C862" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+      <c r="C862" t="n">
+        <v>38</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -60640,10 +59908,8 @@
       <c r="B864" t="n">
         <v>65</v>
       </c>
-      <c r="C864" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C864" t="n">
+        <v>34</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -60712,10 +59978,8 @@
       <c r="B865" t="n">
         <v>58</v>
       </c>
-      <c r="C865" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="C865" t="n">
+        <v>32</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -60978,10 +60242,8 @@
       <c r="B869" t="n">
         <v>72</v>
       </c>
-      <c r="C869" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="C869" t="n">
+        <v>32</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -61052,10 +60314,8 @@
       <c r="B870" t="n">
         <v>74</v>
       </c>
-      <c r="C870" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C870" t="n">
+        <v>34</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -61254,10 +60514,8 @@
       <c r="B873" t="n">
         <v>70</v>
       </c>
-      <c r="C873" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="C873" t="n">
+        <v>32</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -61326,10 +60584,8 @@
       <c r="B874" t="n">
         <v>73.5</v>
       </c>
-      <c r="C874" t="inlineStr">
-        <is>
-          <t>35.5</t>
-        </is>
+      <c r="C874" t="n">
+        <v>35.5</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -61530,10 +60786,8 @@
       <c r="B877" t="n">
         <v>65</v>
       </c>
-      <c r="C877" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C877" t="n">
+        <v>37</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -61600,10 +60854,8 @@
       <c r="B878" t="n">
         <v>71</v>
       </c>
-      <c r="C878" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
+      <c r="C878" t="n">
+        <v>27</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -61808,10 +61060,8 @@
       <c r="B881" t="n">
         <v>75</v>
       </c>
-      <c r="C881" t="inlineStr">
-        <is>
-          <t>41.5</t>
-        </is>
+      <c r="C881" t="n">
+        <v>41.5</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -61878,10 +61128,8 @@
       <c r="B882" t="n">
         <v>77</v>
       </c>
-      <c r="C882" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="C882" t="n">
+        <v>32</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -61952,10 +61200,8 @@
       <c r="B883" t="n">
         <v>60</v>
       </c>
-      <c r="C883" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+      <c r="C883" t="n">
+        <v>38</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -62148,10 +61394,8 @@
       <c r="B886" t="n">
         <v>83</v>
       </c>
-      <c r="C886" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="C886" t="n">
+        <v>37</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -62222,10 +61466,8 @@
       <c r="B887" t="n">
         <v>70</v>
       </c>
-      <c r="C887" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+      <c r="C887" t="n">
+        <v>25</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -62566,10 +61808,8 @@
       <c r="B892" t="n">
         <v>88</v>
       </c>
-      <c r="C892" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C892" t="n">
+        <v>34</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -62636,10 +61876,8 @@
       <c r="B893" t="n">
         <v>67</v>
       </c>
-      <c r="C893" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="C893" t="n">
+        <v>32</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -63376,10 +62614,8 @@
       <c r="B904" t="n">
         <v>60</v>
       </c>
-      <c r="C904" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="C904" t="n">
+        <v>20</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -63578,10 +62814,8 @@
       <c r="B907" t="n">
         <v>65</v>
       </c>
-      <c r="C907" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C907" t="n">
+        <v>35</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -63650,10 +62884,8 @@
       <c r="B908" t="n">
         <v>70</v>
       </c>
-      <c r="C908" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C908" t="n">
+        <v>34</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -63862,10 +63094,8 @@
       <c r="B911" t="n">
         <v>82</v>
       </c>
-      <c r="C911" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="C911" t="n">
+        <v>40</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -63990,10 +63220,8 @@
       <c r="B913" t="n">
         <v>68</v>
       </c>
-      <c r="C913" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="C913" t="n">
+        <v>30</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -64052,10 +63280,8 @@
       <c r="B914" t="n">
         <v>84</v>
       </c>
-      <c r="C914" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C914" t="n">
+        <v>36</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -64548,10 +63774,8 @@
       <c r="B921" t="n">
         <v>85</v>
       </c>
-      <c r="C921" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
+      <c r="C921" t="n">
+        <v>39</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -64682,10 +63906,8 @@
       <c r="B923" t="n">
         <v>90</v>
       </c>
-      <c r="C923" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="C923" t="n">
+        <v>30</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -64898,10 +64120,8 @@
       <c r="B926" t="n">
         <v>62</v>
       </c>
-      <c r="C926" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
+      <c r="C926" t="n">
+        <v>31</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -65236,10 +64456,8 @@
       <c r="B931" t="n">
         <v>62</v>
       </c>
-      <c r="C931" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="C931" t="n">
+        <v>34</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -65382,10 +64600,8 @@
       <c r="B933" t="n">
         <v>70</v>
       </c>
-      <c r="C933" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="C933" t="n">
+        <v>20</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -65650,10 +64866,8 @@
       <c r="B937" t="n">
         <v>74.5</v>
       </c>
-      <c r="C937" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
+      <c r="C937" t="n">
+        <v>38</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -65858,10 +65072,8 @@
       <c r="B940" t="n">
         <v>67.5</v>
       </c>
-      <c r="C940" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="C940" t="n">
+        <v>36</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -65926,10 +65138,8 @@
       <c r="B941" t="n">
         <v>76</v>
       </c>
-      <c r="C941" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="C941" t="n">
+        <v>35</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -66064,10 +65274,8 @@
       <c r="B943" t="n">
         <v>66</v>
       </c>
-      <c r="C943" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="C943" t="n">
+        <v>33</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
